--- a/tables/20_45_fxnal-enrich-genetic-interactions/enrichr_results_COAD_G12S.xlsx
+++ b/tables/20_45_fxnal-enrich-genetic-interactions/enrichr_results_COAD_G12S.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>datasource</t>
   </si>
@@ -89,9 +89,6 @@
     <t>16</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>Transcription_Factor_PPIs</t>
   </si>
   <si>
@@ -125,31 +122,28 @@
     <t>Hypothesized Pathways in Pathogenesis of Cardiovascular Disease WP3668</t>
   </si>
   <si>
+    <t>TP63</t>
+  </si>
+  <si>
+    <t>HIF1A</t>
+  </si>
+  <si>
     <t>CTNNB1</t>
   </si>
   <si>
-    <t>HIF1A</t>
-  </si>
-  <si>
-    <t>TP63</t>
-  </si>
-  <si>
     <t>CEBPA</t>
   </si>
   <si>
+    <t>VDR</t>
+  </si>
+  <si>
+    <t>EPAS1</t>
+  </si>
+  <si>
     <t>O-linked glycosylation_Homo sapiens_R-HSA-5173105</t>
   </si>
   <si>
-    <t>VDR</t>
-  </si>
-  <si>
-    <t>Disease_Homo sapiens_R-HSA-1643685</t>
-  </si>
-  <si>
-    <t>EPAS1</t>
-  </si>
-  <si>
-    <t>Chromosomal and microsatellite instability in colorectal cancer  WP4216</t>
+    <t>ESR2</t>
   </si>
   <si>
     <t>2/12</t>
@@ -173,31 +167,28 @@
     <t>2/25</t>
   </si>
   <si>
+    <t>2/120</t>
+  </si>
+  <si>
+    <t>2/126</t>
+  </si>
+  <si>
     <t>3/398</t>
   </si>
   <si>
-    <t>2/126</t>
-  </si>
-  <si>
-    <t>2/120</t>
-  </si>
-  <si>
     <t>2/113</t>
   </si>
   <si>
+    <t>2/109</t>
+  </si>
+  <si>
+    <t>2/106</t>
+  </si>
+  <si>
     <t>3/110</t>
   </si>
   <si>
-    <t>2/109</t>
-  </si>
-  <si>
-    <t>5/725</t>
-  </si>
-  <si>
-    <t>2/106</t>
-  </si>
-  <si>
-    <t>2/73</t>
+    <t>3/365</t>
   </si>
   <si>
     <t>SMAD3;FBXW7</t>
@@ -221,13 +212,13 @@
     <t>SMAD3;APC;LRRK2</t>
   </si>
   <si>
+    <t>SMAD3;CFH</t>
+  </si>
+  <si>
     <t>WBSCR17;MUC16;ADAMTS9</t>
   </si>
   <si>
-    <t>SMAD3;CFH</t>
-  </si>
-  <si>
-    <t>SMAD3;MUC16;APC;FBXW7;ADAMTS9</t>
+    <t>FLG;SMAD3;APC</t>
   </si>
 </sst>
 </file>
@@ -313,28 +304,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" t="n">
-        <v>3.941561644068303E-5</v>
+        <v>4.4656194172606244E-5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01131228191847603</v>
+        <v>0.012816327727537992</v>
       </c>
       <c r="G2" t="n">
-        <v>208.33333333333331</v>
+        <v>196.07843137254903</v>
       </c>
       <c r="H2" t="n">
-        <v>2112.7809299638134</v>
+        <v>1964.0230456849977</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J2" t="n">
         <v>2.0</v>
@@ -345,28 +336,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" t="n">
-        <v>3.515511542246668E-4</v>
+        <v>3.979873115628295E-4</v>
       </c>
       <c r="F3" t="n">
-        <v>0.033631727087493124</v>
+        <v>0.038074119472844024</v>
       </c>
       <c r="G3" t="n">
-        <v>71.42857142857142</v>
+        <v>67.22689075630252</v>
       </c>
       <c r="H3" t="n">
-        <v>568.0825232914152</v>
+        <v>526.3254073064493</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J3" t="n">
         <v>2.0</v>
@@ -377,28 +368,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" t="n">
-        <v>2.75254319786104E-4</v>
+        <v>3.116539576784677E-4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03949899488930592</v>
+        <v>0.044722342926860115</v>
       </c>
       <c r="G4" t="n">
-        <v>80.64516129032258</v>
+        <v>75.90132827324479</v>
       </c>
       <c r="H4" t="n">
-        <v>661.1141200353907</v>
+        <v>612.7982615314888</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J4" t="n">
         <v>2.0</v>
@@ -409,28 +400,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" t="n">
-        <v>2.75254319786104E-4</v>
+        <v>3.116539576784677E-4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.043306679646347025</v>
+        <v>0.04903355600807891</v>
       </c>
       <c r="G5" t="n">
-        <v>80.64516129032258</v>
+        <v>75.90132827324479</v>
       </c>
       <c r="H5" t="n">
-        <v>661.1141200353907</v>
+        <v>612.7982615314888</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J5" t="n">
         <v>2.0</v>
@@ -441,28 +432,28 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>9.360540134699035E-4</v>
+        <v>0.001126273578445804</v>
       </c>
       <c r="F6" t="n">
-        <v>0.053729500373172465</v>
+        <v>0.06464810340278915</v>
       </c>
       <c r="G6" t="n">
-        <v>15.120967741935482</v>
+        <v>14.231499051233397</v>
       </c>
       <c r="H6" t="n">
-        <v>105.4511700068503</v>
+        <v>96.61538160204768</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J6" t="n">
         <v>3.0</v>
@@ -473,28 +464,28 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7" t="n">
-        <v>2.5761600687002403E-4</v>
+        <v>2.9169286205301905E-4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06079737762132567</v>
+        <v>0.0688395154445125</v>
       </c>
       <c r="G7" t="n">
-        <v>83.33333333333333</v>
+        <v>78.43137254901961</v>
       </c>
       <c r="H7" t="n">
-        <v>688.6700355995</v>
+        <v>638.416404043489</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J7" t="n">
         <v>2.0</v>
@@ -505,28 +496,28 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" t="n">
-        <v>9.036821141702741E-4</v>
+        <v>0.0010874447654406513</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06483919169171716</v>
+        <v>0.07802416192036674</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30612244897959</v>
+        <v>14.40576230492197</v>
       </c>
       <c r="H8" t="n">
-        <v>107.2811158627066</v>
+        <v>98.30383558257928</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J8" t="n">
         <v>3.0</v>
@@ -537,28 +528,28 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>1.7808064838669893E-4</v>
+        <v>2.0167031602328324E-4</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08405406603852189</v>
+        <v>0.09518838916298969</v>
       </c>
       <c r="G9" t="n">
-        <v>100.0</v>
+        <v>94.11764705882354</v>
       </c>
       <c r="H9" t="n">
-        <v>863.3274029458162</v>
+        <v>800.8354157912519</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J9" t="n">
         <v>2.0</v>
@@ -569,31 +560,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00361205626576999</v>
+        <v>0.004577501584745696</v>
       </c>
       <c r="F10" t="n">
-        <v>0.11518446091955413</v>
+        <v>0.11943117771109225</v>
       </c>
       <c r="G10" t="n">
-        <v>9.422110552763819</v>
+        <v>19.607843137254903</v>
       </c>
       <c r="H10" t="n">
-        <v>52.98503202977096</v>
+        <v>105.61964578847743</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J10" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -601,28 +592,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E11" t="n">
-        <v>0.004459751063387136</v>
+        <v>0.0050336357625974625</v>
       </c>
       <c r="F11" t="n">
-        <v>0.11635895956291892</v>
+        <v>0.12038778865545598</v>
       </c>
       <c r="G11" t="n">
-        <v>19.84126984126984</v>
+        <v>18.674136321195146</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3940938470625</v>
+        <v>98.81629767227176</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J11" t="n">
         <v>2.0</v>
@@ -633,31 +624,31 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004054817540383971</v>
+        <v>0.004321924909294262</v>
       </c>
       <c r="F12" t="n">
-        <v>0.11637326340901996</v>
+        <v>0.12403924489674531</v>
       </c>
       <c r="G12" t="n">
-        <v>20.833333333333332</v>
+        <v>8.867868755542418</v>
       </c>
       <c r="H12" t="n">
-        <v>114.74686642986026</v>
+        <v>48.277159873892714</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -665,28 +656,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0036054127233747734</v>
+        <v>0.004071107650863602</v>
       </c>
       <c r="F13" t="n">
-        <v>0.12934418145107</v>
+        <v>0.12982309953309484</v>
       </c>
       <c r="G13" t="n">
-        <v>22.123893805309734</v>
+        <v>20.82248828735034</v>
       </c>
       <c r="H13" t="n">
-        <v>124.45396080586858</v>
+        <v>114.6036474016536</v>
       </c>
       <c r="I13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J13" t="n">
         <v>2.0</v>
@@ -697,31 +688,31 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" t="n">
-        <v>8.604310208634246E-5</v>
+        <v>0.0037943088288471378</v>
       </c>
       <c r="F14" t="n">
-        <v>0.13164594619210396</v>
+        <v>0.13612082923489108</v>
       </c>
       <c r="G14" t="n">
-        <v>34.090909090909086</v>
+        <v>21.586616297895308</v>
       </c>
       <c r="H14" t="n">
-        <v>319.1134840981552</v>
+        <v>120.3292609068028</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -729,28 +720,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0033598328356130506</v>
+        <v>0.003592753073271419</v>
       </c>
       <c r="F15" t="n">
-        <v>0.13775314626013507</v>
+        <v>0.14730287600412817</v>
       </c>
       <c r="G15" t="n">
-        <v>22.93577981651376</v>
+        <v>22.197558268590456</v>
       </c>
       <c r="H15" t="n">
-        <v>130.63908388876837</v>
+        <v>124.94642613986858</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J15" t="n">
         <v>2.0</v>
@@ -761,31 +752,31 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16" t="n">
-        <v>1.932445525229371E-4</v>
+        <v>1.0406304392893897E-4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.14783208268004688</v>
+        <v>0.15921645721127664</v>
       </c>
       <c r="G16" t="n">
-        <v>8.620689655172413</v>
+        <v>32.0855614973262</v>
       </c>
       <c r="H16" t="n">
-        <v>73.72029361767135</v>
+        <v>294.241079706687</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J16" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
@@ -793,63 +784,31 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" t="n">
-        <v>0.003181041206578089</v>
+        <v>0.003389579926121341</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1521598043813186</v>
+        <v>0.16213490646613746</v>
       </c>
       <c r="G17" t="n">
-        <v>23.584905660377355</v>
+        <v>9.6696212731668</v>
       </c>
       <c r="H17" t="n">
-        <v>135.62610170587695</v>
+        <v>54.99161270781345</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.0015254766756261087</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.18000624772388082</v>
-      </c>
-      <c r="G18" t="n">
-        <v>34.246575342465746</v>
-      </c>
-      <c r="H18" t="n">
-        <v>222.10439532817938</v>
-      </c>
-      <c r="I18" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
